--- a/medicine/Enfance/Alice_et_les_Faux-monnayeurs/Alice_et_les_Faux-monnayeurs.xlsx
+++ b/medicine/Enfance/Alice_et_les_Faux-monnayeurs/Alice_et_les_Faux-monnayeurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Alice et les Faux-monnayeurs (titre original : The Secret of Red Gate Farm, littéralement : Le Secret de la ferme Le Portail rouge) est le sixième[1] roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de divers auteurs. L'auteur de ce roman est  Mildred Wirt Benson. 
+Alice et les Faux-monnayeurs (titre original : The Secret of Red Gate Farm, littéralement : Le Secret de la ferme Le Portail rouge) est le sixième roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de divers auteurs. L'auteur de ce roman est  Mildred Wirt Benson. 
 Aux États-Unis, le roman a été publié pour la première fois en 1931 par Grosset &amp; Dunlap, à New York. En France, il est paru pour la première fois en 1968, dans sa version abrégée, chez Hachette Jeunesse dans la collection « Bibliothèque verte » sous le no 352. 
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Résumé détaillé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarque : le résumé est basé sur l'édition cartonnée non abrégée parue en 1968 en langue française.
 Ayant fini leurs emplettes dans une ville voisine de River City, Alice et ses amies Bess et Marion se dépêchent pour ne pas manquer le train du retour. Mais Bess ne peut s'empêcher d'entrer dans une boutique pour y acheter du parfum. 
@@ -550,14 +564,53 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Personnages récurrents
-Alice Roy : jeune détective amateur blonde, orpheline de mère, fille de James Roy.
-James Roy :  avoué[2] de renom, père d'Alice Roy, veuf.
+          <t>Personnages récurrents</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Alice Roy : jeune détective amateur blonde, orpheline de mère, fille de James Roy.
+James Roy :  avoué de renom, père d'Alice Roy, veuf.
 Sarah : la vieille gouvernante des Roy, qui a élevé Alice à la mort de sa mère.
 Bess Taylor : blonde jeune fille, une des meilleures amies d'Alice.
-Marion Webb : brune jeune fille, cousine germaine de Bess Taylor et une des meilleures amies d'Alice.
-Personnages spécifiques à ce roman
-Milly (Millie Byrd en VO) : jeune fille venue à la ville pour y chercher du travail.
+Marion Webb : brune jeune fille, cousine germaine de Bess Taylor et une des meilleures amies d'Alice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alice_et_les_Faux-monnayeurs</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alice_et_les_Faux-monnayeurs</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Personnages spécifiques à ce roman</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Milly (Millie Byrd en VO) : jeune fille venue à la ville pour y chercher du travail.
 Mme Barn (Mrs. Byrd en VO) : grand mère de Milly. qui possède la Ferme des baies rouges.
 Rudolph : valet de ferme.
 Mme Salisbury : pensionnaire à la Ferme des baies rouges.
@@ -568,39 +621,41 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Alice_et_les_Faux-monnayeurs</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alice_et_les_Faux-monnayeurs</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Éditions françaises</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Note : Toutes les éditions ont paru aux éditions Hachette Jeunesse.
-1968 : Alice et les Faux-monnayeurs — coll. « Bibliothèque verte » no 352, cartonné, texte original[3]. Illustré par Albert Chazelle. Traduction d'Anne Joba. 25 chapitres. 185 p.  ;
+1968 : Alice et les Faux-monnayeurs — coll. « Bibliothèque verte » no 352, cartonné, texte original. Illustré par Albert Chazelle. Traduction d'Anne Joba. 25 chapitres. 185 p.  ;
 1975 : Alice et les Faux-monnayeurs — coll. « La Galaxie », cartonné, texte abrégé. Illustré par Josette Mimran. Traduction d'Anne Joba. 25 chapitres. 154 p.  ;
-1983 : Alice et les Faux-monnayeurs — coll. « Bibliothèque verte », cartonné (série "striée"[4]), texte abrégé. Couverture de Joseph Sheldon, illustrations intérieures d'Albert Chazelle. Traduction d'Anne Joba. 25 chapitres. 184 p.  ;
-1984 : Alice et les Faux-monnayeurs — coll. « Bibliothèque verte » (série "striée"[4]), cartonné, texte abrégé. Nouvelle couverture de Jean Sidobre, illustrations intérieures d'Albert Chazelle. Traduction d'Anne Joba. 25 chapitres. 184 p.  ;
+1983 : Alice et les Faux-monnayeurs — coll. « Bibliothèque verte », cartonné (série "striée"), texte abrégé. Couverture de Joseph Sheldon, illustrations intérieures d'Albert Chazelle. Traduction d'Anne Joba. 25 chapitres. 184 p.  ;
+1984 : Alice et les Faux-monnayeurs — coll. « Bibliothèque verte » (série "striée"), cartonné, texte abrégé. Nouvelle couverture de Jean Sidobre, illustrations intérieures d'Albert Chazelle. Traduction d'Anne Joba. 25 chapitres. 184 p.  ;
 2006 : Alice et les Faux-monnayeurs — coll. « Bibliothèque verte » no 2 (série Marguerite Sauvage), format mi-souple, texte abrégé. Illustré par Marguerite Sauvage. Traduction d'Anne Joba. 25 chapitres. 188 p.  ;
-2014 : Alice et les Faux-monnayeurs — coll. « Bibliothèque rose » no 2 (série Marguerite Sauvage), format mi-souple, texte modifié[5]. Illustré par Marguerite Sauvage. Traduction d'Anne Joba. 25 chapitres. 188 p. </t>
+2014 : Alice et les Faux-monnayeurs — coll. « Bibliothèque rose » no 2 (série Marguerite Sauvage), format mi-souple, texte modifié. Illustré par Marguerite Sauvage. Traduction d'Anne Joba. 25 chapitres. 188 p. </t>
         </is>
       </c>
     </row>
